--- a/Данные/Кэшбэк от Ростуризма общее.xlsx
+++ b/Данные/Кэшбэк от Ростуризма общее.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Округа</t>
-  </si>
-  <si>
-    <t>2023 январь</t>
   </si>
   <si>
     <t>Центральный федеральный округ</t>
@@ -409,7 +406,7 @@
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C10" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,97 +423,79 @@
       <c r="B1" s="4">
         <v>2022</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>42691417</v>
       </c>
-      <c r="C2" s="2">
-        <v>2908033</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>29416965</v>
       </c>
-      <c r="C3" s="2">
-        <v>1839306</v>
-      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>28452925</v>
       </c>
-      <c r="C4" s="2">
-        <v>1059722</v>
-      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>3794310</v>
       </c>
-      <c r="C5" s="2">
-        <v>199808</v>
-      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>15557056</v>
       </c>
-      <c r="C6" s="2">
-        <v>1035072</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>7426868</v>
       </c>
-      <c r="C7" s="2">
-        <v>606543</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>9101167</v>
       </c>
-      <c r="C8" s="2">
-        <v>674236</v>
-      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>4833876</v>
       </c>
-      <c r="C9" s="2">
-        <v>293779</v>
-      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
